--- a/IncuttiPanzera_TPPatrones/modulo-exportador-V2/tmp/Datos.xlsx
+++ b/IncuttiPanzera_TPPatrones/modulo-exportador-V2/tmp/Datos.xlsx
@@ -23,7 +23,7 @@
     <t>Edad</t>
   </si>
   <si>
-    <t>Lucas</t>
+    <t>Joaquin</t>
   </si>
   <si>
     <t>Gonzalez</t>
